--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA9BB6B-F1BB-4A4B-A2B9-08141DC39D98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65439D49-87F0-8542-B944-A6103004606E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26620" yWindow="1440" windowWidth="17560" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25660" yWindow="1440" windowWidth="17560" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
   <si>
     <t>Value</t>
   </si>
@@ -34,9 +34,6 @@
     <t>San Francisco</t>
   </si>
   <si>
-    <t>^ ellnwfin tuna</t>
-  </si>
-  <si>
     <t>Dover sole</t>
   </si>
   <si>
@@ -49,9 +46,6 @@
     <t>Oakland</t>
   </si>
   <si>
-    <t>Alltacore</t>
-  </si>
-  <si>
     <t>Sausalito</t>
   </si>
   <si>
@@ -73,9 +67,6 @@
     <t>species</t>
   </si>
   <si>
-    <t xml:space="preserve">Alliaroro </t>
-  </si>
-  <si>
     <t xml:space="preserve">Crab </t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t xml:space="preserve">Hex sole  </t>
   </si>
   <si>
-    <t xml:space="preserve">Iingcixl   </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sanddab </t>
   </si>
   <si>
@@ -112,15 +100,9 @@
     <t>TotalsI</t>
   </si>
   <si>
-    <t xml:space="preserve">Publish sole  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Albacore   </t>
   </si>
   <si>
-    <t>Kuckfish</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ocean shrimp         </t>
   </si>
   <si>
@@ -145,9 +127,6 @@
     <t xml:space="preserve">(■iant Pacific oyster   </t>
   </si>
   <si>
-    <t xml:space="preserve">Hock fish    </t>
-  </si>
-  <si>
     <t xml:space="preserve">Petrale sole </t>
   </si>
   <si>
@@ -184,12 +163,6 @@
     <t xml:space="preserve">Pacific herring </t>
   </si>
   <si>
-    <t xml:space="preserve">Kastern oyster  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(iiant Pacific oyster—      </t>
-  </si>
-  <si>
     <t xml:space="preserve">Carp  </t>
   </si>
   <si>
@@ -202,13 +175,31 @@
     <t xml:space="preserve">Carp   </t>
   </si>
   <si>
-    <t>l{ Mk fish</t>
-  </si>
-  <si>
     <t>Hardhead</t>
   </si>
   <si>
     <t>Total check</t>
+  </si>
+  <si>
+    <t>Yellnwfin tuna</t>
+  </si>
+  <si>
+    <t>Rockfish</t>
+  </si>
+  <si>
+    <t>Rex sole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lingcod  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">English sole  </t>
+  </si>
+  <si>
+    <t>Giant Pacific oyster</t>
+  </si>
+  <si>
+    <t>Eastern oyster</t>
   </si>
 </sst>
 </file>
@@ -574,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -588,10 +579,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -616,7 +607,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2">
         <v>1706500</v>
@@ -630,7 +621,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2">
         <v>1073221</v>
@@ -644,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>572334</v>
@@ -658,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2">
         <v>127515</v>
@@ -672,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2">
         <v>82269</v>
@@ -686,7 +677,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2">
         <v>71149</v>
@@ -700,7 +691,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10" s="2">
         <v>57686</v>
@@ -714,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="2">
         <v>48869</v>
@@ -728,7 +719,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2">
         <v>43950</v>
@@ -742,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2">
         <v>28318</v>
@@ -756,7 +747,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" s="2">
         <v>13820</v>
@@ -770,7 +761,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C15" s="2">
         <v>12894</v>
@@ -784,7 +775,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2">
         <v>11775</v>
@@ -798,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2">
         <v>7907</v>
@@ -812,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" s="2">
         <v>25986</v>
@@ -826,7 +817,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
         <v>3884193</v>
@@ -837,7 +828,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C20" s="4">
         <f>SUM(C4:C18)-C19</f>
@@ -850,10 +841,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C21" s="2">
         <v>449135</v>
@@ -864,10 +855,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2">
         <v>172082</v>
@@ -878,10 +869,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2">
         <v>42342</v>
@@ -892,10 +883,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
         <v>17444</v>
@@ -906,10 +897,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2">
         <v>14972</v>
@@ -920,10 +911,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
         <v>13917</v>
@@ -934,10 +925,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2">
         <v>8385</v>
@@ -948,10 +939,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C28" s="2">
         <v>6723</v>
@@ -962,10 +953,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>6477</v>
@@ -976,10 +967,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C30" s="2">
         <v>23547</v>
@@ -990,10 +981,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C31" s="2">
         <v>755024</v>
@@ -1004,7 +995,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4">
         <f>SUM(C21:C30)-C31</f>
@@ -1017,10 +1008,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
         <v>106575</v>
@@ -1031,10 +1022,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C34" s="2">
         <v>76523</v>
@@ -1045,10 +1036,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C35" s="2">
         <v>37828</v>
@@ -1059,10 +1050,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C36" s="2">
         <v>24754</v>
@@ -1073,10 +1064,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2">
         <v>20341</v>
@@ -1087,10 +1078,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2">
         <v>10623</v>
@@ -1101,10 +1092,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C39" s="2">
         <v>10242</v>
@@ -1115,10 +1106,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2">
         <v>5697</v>
@@ -1129,10 +1120,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C41" s="2">
         <v>18984</v>
@@ -1143,10 +1134,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
         <v>311567</v>
@@ -1157,7 +1148,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C43" s="4">
         <f>SUM(C33:C41)-C42</f>
@@ -1170,10 +1161,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2">
         <v>181022</v>
@@ -1184,10 +1175,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C45" s="2">
         <v>48630</v>
@@ -1198,10 +1189,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
         <v>14784</v>
@@ -1212,10 +1203,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2">
         <v>53</v>
@@ -1226,10 +1217,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2">
         <v>244489</v>
@@ -1240,7 +1231,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C49" s="4">
         <f>SUM(C44:C47)-C48</f>
@@ -1253,10 +1244,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C50" s="2">
         <v>103945</v>
@@ -1267,10 +1258,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2">
         <v>62238</v>
@@ -1281,10 +1272,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
         <v>58712</v>
@@ -1295,10 +1286,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C53" s="2">
         <v>104</v>
@@ -1309,10 +1300,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C54" s="2">
         <v>224999</v>
@@ -1323,7 +1314,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B55" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4">
         <f>SUM(C50:C53)-C54</f>
@@ -1336,10 +1327,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C56" s="2">
         <v>39884</v>
@@ -1350,10 +1341,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C57" s="2">
         <v>7498</v>
@@ -1364,10 +1355,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C58" s="2">
         <v>6060</v>
@@ -1378,10 +1369,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2">
         <v>53442</v>
@@ -1392,7 +1383,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <f>SUM(C56:C58)-C59</f>
@@ -1405,10 +1396,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C61" s="2">
         <v>25451</v>
@@ -1419,10 +1410,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C62" s="2">
         <v>18239</v>
@@ -1433,10 +1424,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B63" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2">
         <v>43690</v>
@@ -1447,7 +1438,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C64" s="4">
         <f>SUM(C61:C62)-C63</f>
@@ -1460,10 +1451,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2">
         <v>11117</v>
@@ -1474,10 +1465,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C66" s="2">
         <v>9292</v>
@@ -1488,10 +1479,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2">
         <v>7086</v>
@@ -1502,10 +1493,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C68" s="2">
         <v>7917</v>
@@ -1516,10 +1507,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B69" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C69" s="2">
         <v>35412</v>
@@ -1530,7 +1521,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B70" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C70" s="4">
         <f>SUM(C65:C68)-C69</f>
@@ -1543,10 +1534,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2">
         <v>8969</v>
@@ -1557,10 +1548,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2">
         <v>12731</v>
@@ -1571,10 +1562,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2">
         <v>21700</v>
@@ -1585,7 +1576,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C74" s="4">
         <f>SUM(C71:C72)-C73</f>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65439D49-87F0-8542-B944-A6103004606E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B89B96-FCA9-224C-85B2-759A2373A25F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25660" yWindow="1440" windowWidth="17560" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="60">
   <si>
     <t>Value</t>
   </si>
@@ -565,14 +565,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
@@ -592,8 +591,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>5574516</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/Table35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb108/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B89B96-FCA9-224C-85B2-759A2373A25F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{800AB64D-60B6-1349-9F84-2FB6086F7756}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25660" yWindow="1440" windowWidth="17560" windowHeight="22780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -565,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
